--- a/ServiceGenerated/SDKDesc/en-US/SettingSystem.json.xlsx
+++ b/ServiceGenerated/SDKDesc/en-US/SettingSystem.json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ruyi\jade\commons\ServiceGenerated\SDKDesc\en-US\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EAAB96-C3D2-43BB-B9AA-58C181C43A43}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3E44AA-4B09-47F9-A429-1829035D3C74}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1359,7 +1359,7 @@
   <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
